--- a/medicine/Maladies infectieuses/Recherche_des_contacts_durant_l'épidémie_de_Covid-19/Recherche_des_contacts_durant_l'épidémie_de_Covid-19.xlsx
+++ b/medicine/Maladies infectieuses/Recherche_des_contacts_durant_l'épidémie_de_Covid-19/Recherche_des_contacts_durant_l'épidémie_de_Covid-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recherche_des_contacts_durant_l%27%C3%A9pid%C3%A9mie_de_Covid-19</t>
+          <t>Recherche_des_contacts_durant_l'épidémie_de_Covid-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche des contacts durant l'épidémie de Covid-19 est une technique qui permet d'identifier et de prévenir les personnes contaminées par une personne contagieuse afin de les tester et de contenir une épidémie comme la pandémie de Covid-19.
 Le tracing a été déployé dans des pays comme la France, le Royaume-Uni ou l'Allemagne. Il utilise des techniques de Recherche des contacts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recherche_des_contacts_durant_l%27%C3%A9pid%C3%A9mie_de_Covid-19</t>
+          <t>Recherche_des_contacts_durant_l'épidémie_de_Covid-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Au Japon et en Corée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon et en Corée du Sud, en Chine et à Singapour, la recherche des contacts se fait en direction rétrospectif[1].
-L'idée est la possibilité d'une meilleure efficience de tracer l'antécédent, et d'isoler ces superspreaders (super-contaminants) que de tracer les contaminations postérieures et d'isoler des individus qui ne seraient pas contaminants même s'ils étaient infectés, et ne pourraient pas transmettre le virus même à très peu de monde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon et en Corée du Sud, en Chine et à Singapour, la recherche des contacts se fait en direction rétrospectif.
+L'idée est la possibilité d'une meilleure efficience de tracer l'antécédent, et d'isoler ces superspreaders (super-contaminants) que de tracer les contaminations postérieures et d'isoler des individus qui ne seraient pas contaminants même s'ils étaient infectés, et ne pourraient pas transmettre le virus même à très peu de monde.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recherche_des_contacts_durant_l%27%C3%A9pid%C3%A9mie_de_Covid-19</t>
+          <t>Recherche_des_contacts_durant_l'épidémie_de_Covid-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,18 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le tracing est une chaîne : le médecin prescrit un test, le test positif est signalé à l'ARS, l'ARS le signale à l'assurance maladie, les brigades de l'assurance maladie contactent le patient[3].
-En France, la tracing est réalisé par l'assurance maladie (CPAM) sur signalement d'un médecin[4].
-Le tracing peut remonter les contacts aux cours des deux à sept journées précédents les premiers symptômes[5],[3].
-Dans la région de Rennes, pour 1000 personnes malades, 6000 ont été jointes dans le cadre du tracing[3].
-Dans ce circuit, le médecin intervient une première fois pour prescrire le test et une deuxième fois pour lire les résultats du test et déclencher le dispositif de tracing, en échange d'une rémunération supplémentaire selon ameli[6].
-En France, le tracing est mis en difficulté en raison d'une pénurie de personnel dans les laboratoires de test[7].
-En France, le tracing s'intègre dans une logique de "Tester-Tracer-Isoler"[8].
-En France, la stratégie de tracing risque d'être débordée par la Seconde vague de coronavirus en Europe[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le tracing est une chaîne : le médecin prescrit un test, le test positif est signalé à l'ARS, l'ARS le signale à l'assurance maladie, les brigades de l'assurance maladie contactent le patient.
+En France, la tracing est réalisé par l'assurance maladie (CPAM) sur signalement d'un médecin.
+Le tracing peut remonter les contacts aux cours des deux à sept journées précédents les premiers symptômes,.
+Dans la région de Rennes, pour 1000 personnes malades, 6000 ont été jointes dans le cadre du tracing.
+Dans ce circuit, le médecin intervient une première fois pour prescrire le test et une deuxième fois pour lire les résultats du test et déclencher le dispositif de tracing, en échange d'une rémunération supplémentaire selon ameli.
+En France, le tracing est mis en difficulté en raison d'une pénurie de personnel dans les laboratoires de test.
+En France, le tracing s'intègre dans une logique de "Tester-Tracer-Isoler".
+En France, la stratégie de tracing risque d'être débordée par la Seconde vague de coronavirus en Europe.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Recherche_des_contacts_durant_l%27%C3%A9pid%C3%A9mie_de_Covid-19</t>
+          <t>Recherche_des_contacts_durant_l'épidémie_de_Covid-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>En Belgique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Belgique, les voyageurs à l'étranger doivent remplir un formulaire dans e cadre du tracing[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, les voyageurs à l'étranger doivent remplir un formulaire dans e cadre du tracing.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Recherche_des_contacts_durant_l%27%C3%A9pid%C3%A9mie_de_Covid-19</t>
+          <t>Recherche_des_contacts_durant_l'épidémie_de_Covid-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>En Suède</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Suède, les personnes peuvent réaliser le tracing sans avoir recours à des intermédiaires[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suède, les personnes peuvent réaliser le tracing sans avoir recours à des intermédiaires.
 </t>
         </is>
       </c>
